--- a/data/reports.xlsx
+++ b/data/reports.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Reports" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>filePath</t>
+  </si>
+  <si>
+    <t>Expenses Report - 2025-05-05T08-49-07-891Z</t>
+  </si>
+  <si>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>2025-05-05T08:49:07.920Z</t>
+  </si>
+  <si>
+    <t>/home/runner/workspace/data/reports/expenses_2025-05-05T08-49-07-891Z.xlsx</t>
   </si>
 </sst>
 </file>
@@ -411,12 +423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -434,6 +448,23 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
